--- a/biology/Zoologie/Bar_tacheté/Bar_tacheté.xlsx
+++ b/biology/Zoologie/Bar_tacheté/Bar_tacheté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicentrarchus punctatus
 Le Bar moucheté ou Bar tacheté (Dicentrarchus punctatus), est une espèce de poissons marins appartenant à la famille des Moronidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bar moucheté est plus méridional que le Bar commun, il vit au nord du golfe de Gascogne et dans la mer Méditerranée, le plus fréquemment le long des côtes du Sud, et sur la côte ouest de l'Afrique, du Maroc au Sénégal. Il est commun tout le long de la côte italienne, à l'exception, du nord de l'Adriatique.
-Le Dicentrarchus labrax présente deux populations, l'une atlantique, l'autre méditerranéenne qui se sont retrouvées séparées par le détroit de Gibraltar lors de la dernière glaciation. Aujourd'hui, ils ont une étroite zone de contact constituée par la mer d'Alboran. Ces deux sous-espèces sont génétiquement différenciées, mais peuvent engendrer des hybrides dans la zone de contact[1].
+Le Dicentrarchus labrax présente deux populations, l'une atlantique, l'autre méditerranéenne qui se sont retrouvées séparées par le détroit de Gibraltar lors de la dernière glaciation. Aujourd'hui, ils ont une étroite zone de contact constituée par la mer d'Alboran. Ces deux sous-espèces sont génétiquement différenciées, mais peuvent engendrer des hybrides dans la zone de contact.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il ressemble beaucoup au bar commun, mais a pour différence les caractères suivants :
 des mouchetures bien apparentes sur les flancs, même chez l'adulte;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prédateur, il se nourrit de crustacés, de mollusques et même de petits poissons.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Se reproduit en hiver dans les eaux côtières.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bar_tachet%C3%A9</t>
+          <t>Bar_tacheté</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce taxon admet de nombreux synonymes :
 Bodianus punctatus (Bloch, 1792)
